--- a/temporary/students_table.xlsx
+++ b/temporary/students_table.xlsx
@@ -1505,6 +1505,192 @@
         </is>
       </c>
     </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Ziyana Islam</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>Quamrul Islam</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>2019-01-10</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Dhaka, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>ziyana@gmail.com</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Affan Islam</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>Salman Islam</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>Dhaka, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>Student</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>affan@gmail.com</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/temporary/students_table.xlsx
+++ b/temporary/students_table.xlsx
@@ -1691,6 +1691,1742 @@
         </is>
       </c>
     </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G31" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I31" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J31" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K31" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L31" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I32" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J32" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K32" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L32" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I33" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J33" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K33" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L33" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I34" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J34" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K34" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L34" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G35" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I35" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J35" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K35" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L35" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I36" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J36" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K36" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L36" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G37" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I37" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J37" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K37" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L37" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I38" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J38" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K38" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L38" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Tamima Sultana</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G39" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I39" s="0" t="inlineStr">
+        <is>
+          <t>Married</t>
+        </is>
+      </c>
+      <c r="J39" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K39" s="0" t="inlineStr">
+        <is>
+          <t>tamima@gmail.com</t>
+        </is>
+      </c>
+      <c r="L39" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I40" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J40" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K40" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L40" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I41" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J41" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K41" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L41" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G42" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H42" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I42" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J42" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K42" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L42" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G43" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H43" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I43" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J43" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K43" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L43" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G44" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H44" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I44" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J44" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K44" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L44" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G45" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H45" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I45" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J45" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K45" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L45" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G46" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H46" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I46" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J46" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K46" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L46" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F47" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G47" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H47" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I47" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J47" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K47" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L47" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>Bilai er Bap</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F48" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G48" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H48" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I48" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J48" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K48" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L48" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F49" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G49" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H49" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I49" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J49" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K49" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L49" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F50" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G50" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H50" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I50" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J50" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K50" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L50" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F51" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G51" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H51" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I51" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J51" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K51" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L51" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F52" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G52" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H52" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I52" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J52" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K52" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L52" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F53" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G53" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H53" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I53" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J53" s="0" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+      <c r="K53" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L53" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi</t>
+        </is>
+      </c>
+      <c r="F54" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G54" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H54" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I54" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J54" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K54" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L54" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Wali</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi</t>
+        </is>
+      </c>
+      <c r="F55" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G55" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H55" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I55" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J55" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K55" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L55" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/temporary/students_table.xlsx
+++ b/temporary/students_table.xlsx
@@ -3427,6 +3427,130 @@
         </is>
       </c>
     </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>2023-05-28</t>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi</t>
+        </is>
+      </c>
+      <c r="F56" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G56" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H56" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I56" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J56" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K56" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L56" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Md. Masuk Al Hussain </t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>Tarik Hossain</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t>Rajshahi, Bangladesh</t>
+        </is>
+      </c>
+      <c r="F57" s="0" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="G57" s="0" t="inlineStr">
+        <is>
+          <t>Islam</t>
+        </is>
+      </c>
+      <c r="H57" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I57" s="0" t="inlineStr">
+        <is>
+          <t>Single</t>
+        </is>
+      </c>
+      <c r="J57" s="0" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+      <c r="K57" s="0" t="inlineStr">
+        <is>
+          <t>masukalhussain3@gmail.com</t>
+        </is>
+      </c>
+      <c r="L57" s="0" t="inlineStr">
+        <is>
+          <t>01709014797</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>